--- a/twitter-influencer-ranking/top_300_targets.xlsx
+++ b/twitter-influencer-ranking/top_300_targets.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\ProjectOOP\twitter-influencer-ranking\twitter-influencer-ranking\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343EDC1-75C9-46A4-8F42-0BC6532C8713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Top Target Users" sheetId="1" r:id="rId1"/>
+    <sheet name="Top Target Users" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+  <si>
+    <t>Rank</t>
+  </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
   <si>
     <t>@elonmusk</t>
@@ -928,12 +926,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -943,7 +942,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -958,1859 +957,3338 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" activeCellId="1" sqref="B1:B1048576 S16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.06640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C2" t="n" s="1">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C3" t="n" s="1">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C4" t="n" s="1">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C5" t="n" s="1">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C6" t="n" s="1">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C7" t="n" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C8" t="n" s="1">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C9" t="n" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C10" t="n" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C11" t="n" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C12" t="n" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C13" t="n" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C14" t="n" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C15" t="n" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C16" t="n" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C17" t="n" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C18" t="n" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C19" t="n" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C20" t="n" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C21" t="n" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C22" t="n" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C23" t="n" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C24" t="n" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C25" t="n" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C26" t="n" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C27" t="n" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C28" t="n" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C29" t="n" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C30" t="n" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C31" t="n" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C32" t="n" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C33" t="n" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C34" t="n" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C35" t="n" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C36" t="n" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C37" t="n" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C38" t="n" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C39" t="n" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C40" t="n" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C41" t="n" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C42" t="n" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C43" t="n" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C44" t="n" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C45" t="n" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C46" t="n" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C47" t="n" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C48" t="n" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C49" t="n" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C50" t="n" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C51" t="n" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C52" t="n" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C53" t="n" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C54" t="n" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C55" t="n" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C56" t="n" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C57" t="n" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C58" t="n" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C59" t="n" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="C60" t="n" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C61" t="n" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C62" t="n" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C63" t="n" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C64" t="n" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C65" t="n" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C66" t="n" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C67" t="n" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C68" t="n" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C69" t="n" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C70" t="n" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C71" t="n" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="C72" t="n" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C73" t="n" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C74" t="n" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="C75" t="n" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C76" t="n" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C77" t="n" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C78" t="n" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C79" t="n" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C80" t="n" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C81" t="n" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C82" t="n" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C83" t="n" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="C84" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C85" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C86" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C87" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C88" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C89" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C90" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C91" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C92" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C93" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C94" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C95" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C96" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="C97" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C98" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="C99" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="C100" t="n" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B101" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="C101" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C102" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="C103" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="C104" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="C105" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="C106" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C107" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="C108" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="C109" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="C110" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="C111" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="C112" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="C113" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="C114" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="C115" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="C116" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="C117" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="C118" t="n" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="C119" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="C120" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C121" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="C122" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C123" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="C124" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="C125" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="C126" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="C127" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="C128" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C129" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="C130" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="C131" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="C132" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="C133" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="C134" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="C135" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="C136" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="C137" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="C138" t="n" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C139" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="C140" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="C141" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="C142" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="C143" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="C144" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="C145" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="C146" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="C147" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="C148" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="C149" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="C150" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="C151" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="C152" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="C153" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="C154" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="C155" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="C156" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="C157" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="C158" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="C159" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="C160" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="C161" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="C162" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="C163" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="C164" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="C165" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="C166" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="C167" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="C168" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="C169" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="C170" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="C171" t="n" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="C172" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="C173" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="C174" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="C175" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="C176" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="C177" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="C178" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="C179" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="C180" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="C181" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="C182" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="C183" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="C184" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="C185" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="C186" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C187" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="C188" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C189" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="B190" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="C190" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="B191" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="C191" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B192" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="C192" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B193" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="C193" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="B194" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="C194" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="B195" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="C195" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="B196" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C196" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="C197" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="C198" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="C199" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="C200" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B201" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="C201" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="B202" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="C202" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="B203" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="C203" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B204" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="C204" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B205" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="C205" t="n" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B206" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="C206" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B207" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="C207" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B208" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="C208" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B209" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="C209" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="B210" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="C210" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B211" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="C211" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B212" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="C212" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="B213" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="C213" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="B214" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="C214" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B215" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="C215" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="B216" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="C216" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="B217" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="C217" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="B218" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="C218" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B219" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="C219" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="B220" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="C220" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="B221" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="C221" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="B222" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="C222" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B223" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="C223" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="B224" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="C224" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="B225" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="C225" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="B226" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="C226" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B227" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="C227" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="B228" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="C228" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="B229" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="C229" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="B230" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="C230" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="B231" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="C231" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="B232" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="C232" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="B233" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="C233" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B234" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="C234" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="B235" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="C235" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="B236" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="C236" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="B237" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="C237" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="B238" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="C238" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="B239" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="C239" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="B240" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="C240" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="B241" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="C241" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="B242" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="C242" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="B243" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="C243" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="B244" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="C244" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="B245" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="C245" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="B246" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="C246" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B247" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="C247" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="B248" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="C248" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="B249" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="C249" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="B250" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="C250" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B251" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="C251" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="B252" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="C252" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="B253" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="C253" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="B254" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="C254" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="B255" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="C255" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="B256" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="C256" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="B257" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="C257" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="B258" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="C258" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="B259" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="C259" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="B260" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="C260" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="B261" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="C261" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="B262" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="C262" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B263" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="C263" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="B264" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="C264" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="B265" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="C265" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="B266" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="C266" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B267" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="C267" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="B268" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="C268" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="B269" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="C269" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="B270" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="C270" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B271" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="C271" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="B272" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="C272" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="B273" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="C273" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="B274" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="C274" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="B275" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="C275" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="B276" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="C276" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B277" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="C277" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="B278" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="C278" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="B279" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="C279" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="B280" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="C280" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="B281" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="C281" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="B282" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="C282" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="B283" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="C283" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="B284" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="C284" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="B285" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="C285" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="B286" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="C286" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="B287" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="C287" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="B288" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="C288" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B289" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="C289" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="B290" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="C290" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="B291" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="C291" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="B292" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="C292" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="B293" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="C293" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="B294" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="C294" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="B295" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="C295" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="B296" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="C296" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="B297" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="C297" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="B298" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="C298" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="B299" t="s">
         <v>300</v>
       </c>
+      <c r="C299" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>301</v>
+      </c>
+      <c r="C300" t="n" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>302</v>
+      </c>
+      <c r="C301" t="n" s="1">
+        <v>10.0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>